--- a/resources/experiment 1/metrics/R2/incidence/Amputación extremidades inferiores (INC).xlsx
+++ b/resources/experiment 1/metrics/R2/incidence/Amputación extremidades inferiores (INC).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9954328235306297</v>
+        <v>0.9949802356960217</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9954432405628389</v>
+        <v>0.9948853745701375</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9954432405628389</v>
+        <v>0.9925019893269079</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9974209498443866</v>
+        <v>0.9954463442009103</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9974209498443866</v>
+        <v>0.9953334392186498</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9974209498443866</v>
+        <v>0.9710232631250076</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9862340524706306</v>
+        <v>0.9967975879584201</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9862259255853817</v>
+        <v>0.9968181578817626</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9862259255853817</v>
+        <v>0.9969142509106037</v>
       </c>
     </row>
   </sheetData>
